--- a/datasets/palavras_chave_esg.xlsx
+++ b/datasets/palavras_chave_esg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaraivaleite/TCC/Codigo/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD9074F-0DD2-704E-813E-4FC974BFBC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF7E706-7DC7-2C4F-95A3-6C9B17D30B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{9696DD06-7E27-1044-95AF-4D7C4710192F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="221">
   <si>
     <t>E</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Energia limpa</t>
   </si>
   <si>
-    <t>Resíduos tóxicos</t>
-  </si>
-  <si>
     <t>Fraude</t>
   </si>
   <si>
@@ -333,9 +330,6 @@
     <t>Rombo contábil</t>
   </si>
   <si>
-    <t>Prejuízo investidores</t>
-  </si>
-  <si>
     <t>Filantropia</t>
   </si>
   <si>
@@ -432,9 +426,6 @@
     <t>Crédito carbono</t>
   </si>
   <si>
-    <t>Demissão em massa</t>
-  </si>
-  <si>
     <t>Pessoas politicamente expostas</t>
   </si>
   <si>
@@ -493,6 +484,213 @@
   </si>
   <si>
     <t>Insider trading</t>
+  </si>
+  <si>
+    <t>Resíduos</t>
+  </si>
+  <si>
+    <t>Ibama</t>
+  </si>
+  <si>
+    <t>Icmbio</t>
+  </si>
+  <si>
+    <t>Incra</t>
+  </si>
+  <si>
+    <t>Funai</t>
+  </si>
+  <si>
+    <t>Justiça</t>
+  </si>
+  <si>
+    <t>Roubo</t>
+  </si>
+  <si>
+    <t>Furto</t>
+  </si>
+  <si>
+    <t>Assédio</t>
+  </si>
+  <si>
+    <t>Agressão</t>
+  </si>
+  <si>
+    <t>Desleal</t>
+  </si>
+  <si>
+    <t>Concorrência</t>
+  </si>
+  <si>
+    <t>Cartel</t>
+  </si>
+  <si>
+    <t>Prejuízo</t>
+  </si>
+  <si>
+    <t>Fundiário</t>
+  </si>
+  <si>
+    <t>Devolutas</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>Audiência</t>
+  </si>
+  <si>
+    <t>Anticompetitiva</t>
+  </si>
+  <si>
+    <t>Controvérsias</t>
+  </si>
+  <si>
+    <t>Estupro</t>
+  </si>
+  <si>
+    <t>Menor de idade</t>
+  </si>
+  <si>
+    <t>Termo Ajustamento Conduta</t>
+  </si>
+  <si>
+    <t>Lobby</t>
+  </si>
+  <si>
+    <t>Lobista</t>
+  </si>
+  <si>
+    <t>Lobbysta</t>
+  </si>
+  <si>
+    <t>Incêndio</t>
+  </si>
+  <si>
+    <t>Greenpeace</t>
+  </si>
+  <si>
+    <t>Remuneração</t>
+  </si>
+  <si>
+    <t>Sindicato</t>
+  </si>
+  <si>
+    <t>CUT</t>
+  </si>
+  <si>
+    <t>Ministério Trabalho</t>
+  </si>
+  <si>
+    <t>Erro balanço</t>
+  </si>
+  <si>
+    <t>CGU</t>
+  </si>
+  <si>
+    <t>Ministério Público</t>
+  </si>
+  <si>
+    <t>Negligência</t>
+  </si>
+  <si>
+    <t>PROCON</t>
+  </si>
+  <si>
+    <t>Protesto</t>
+  </si>
+  <si>
+    <t>MPF</t>
+  </si>
+  <si>
+    <t>Discriminação salarial</t>
+  </si>
+  <si>
+    <t>Acordo leniência</t>
+  </si>
+  <si>
+    <t>Bombeiros</t>
+  </si>
+  <si>
+    <t>Deficiência</t>
+  </si>
+  <si>
+    <t>PCD</t>
+  </si>
+  <si>
+    <t>Conselho administração</t>
+  </si>
+  <si>
+    <t>Demissão</t>
+  </si>
+  <si>
+    <t>Polêmica</t>
+  </si>
+  <si>
+    <t>Efeito negativo</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Educação</t>
+  </si>
+  <si>
+    <t>Ações afirmativas</t>
+  </si>
+  <si>
+    <t>Suborno</t>
+  </si>
+  <si>
+    <t>Lixo</t>
+  </si>
+  <si>
+    <t>Radiação</t>
+  </si>
+  <si>
+    <t>Armas</t>
+  </si>
+  <si>
+    <t>Armamento</t>
+  </si>
+  <si>
+    <t>Alcoolismo</t>
+  </si>
+  <si>
+    <t>Fumo</t>
+  </si>
+  <si>
+    <t>Ataque</t>
+  </si>
+  <si>
+    <t>Petróleo</t>
+  </si>
+  <si>
+    <t>Combustível fóssil</t>
+  </si>
+  <si>
+    <t>Biogás</t>
+  </si>
+  <si>
+    <t>Propaganda enganosa</t>
+  </si>
+  <si>
+    <t>Skimming</t>
+  </si>
+  <si>
+    <t>Sabotagem</t>
+  </si>
+  <si>
+    <t>Evasão fiscal</t>
+  </si>
+  <si>
+    <t>Evasão divisas</t>
+  </si>
+  <si>
+    <t>Acumular dívidas</t>
+  </si>
+  <si>
+    <t>Ocultação</t>
   </si>
 </sst>
 </file>
@@ -855,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F21AF48-96F3-3D46-821B-9B27FF9A764E}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C80" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,35 +1079,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -917,21 +1115,21 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -939,528 +1137,791 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
         <v>106</v>
-      </c>
-      <c r="C42" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>211</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
       </c>
       <c r="C48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>145</v>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1469,8 +1930,8 @@
       <sortCondition ref="C1:C65"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C64">
-    <sortCondition ref="C38:C64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C96">
+    <sortCondition ref="C2:C96"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/datasets/palavras_chave_esg.xlsx
+++ b/datasets/palavras_chave_esg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaraivaleite/TCC/Codigo/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaraivaleite/Documents/GitHub/esgnewssentimentgpt/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF7E706-7DC7-2C4F-95A3-6C9B17D30B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7938EFC-C801-7941-8D09-7F47E83237D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{9696DD06-7E27-1044-95AF-4D7C4710192F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="222">
   <si>
     <t>E</t>
   </si>
@@ -691,6 +691,9 @@
   </si>
   <si>
     <t>Ocultação</t>
+  </si>
+  <si>
+    <t>Defesa Econômica</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F21AF48-96F3-3D46-821B-9B27FF9A764E}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C80" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C22" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1470,7 +1473,7 @@
         <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1481,7 +1484,7 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1492,7 +1495,7 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1503,7 +1506,7 @@
         <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1514,7 +1517,7 @@
         <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1525,7 +1528,7 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1536,7 +1539,7 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1547,7 +1550,7 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1558,7 +1561,7 @@
         <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1569,7 +1572,7 @@
         <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1580,7 +1583,7 @@
         <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1591,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1602,7 +1605,7 @@
         <v>195</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1613,7 +1616,7 @@
         <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1624,7 +1627,7 @@
         <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1635,7 +1638,7 @@
         <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1646,7 +1649,7 @@
         <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1657,7 +1660,7 @@
         <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1668,7 +1671,7 @@
         <v>188</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1679,7 +1682,7 @@
         <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1690,7 +1693,7 @@
         <v>189</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1701,7 +1704,7 @@
         <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1712,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1723,7 +1726,7 @@
         <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1731,7 +1734,7 @@
         <v>200</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1739,7 +1742,7 @@
         <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1747,7 +1750,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1755,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
@@ -1763,7 +1766,7 @@
         <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
@@ -1771,156 +1774,161 @@
         <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1930,8 +1938,8 @@
       <sortCondition ref="C1:C65"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C96">
-    <sortCondition ref="C2:C96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C97">
+    <sortCondition ref="C2:C97"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/datasets/palavras_chave_esg.xlsx
+++ b/datasets/palavras_chave_esg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaraivaleite/Documents/GitHub/esgnewssentimentgpt/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaraivaleite/TCC/Codigo/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7938EFC-C801-7941-8D09-7F47E83237D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF7E706-7DC7-2C4F-95A3-6C9B17D30B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{9696DD06-7E27-1044-95AF-4D7C4710192F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="221">
   <si>
     <t>E</t>
   </si>
@@ -691,9 +691,6 @@
   </si>
   <si>
     <t>Ocultação</t>
-  </si>
-  <si>
-    <t>Defesa Econômica</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F21AF48-96F3-3D46-821B-9B27FF9A764E}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C22" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C80" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1473,7 +1470,7 @@
         <v>178</v>
       </c>
       <c r="C37" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1484,7 +1481,7 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1495,7 +1492,7 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1506,7 +1503,7 @@
         <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1517,7 +1514,7 @@
         <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1528,7 +1525,7 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1539,7 +1536,7 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1550,7 +1547,7 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1561,7 +1558,7 @@
         <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1572,7 +1569,7 @@
         <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1583,7 +1580,7 @@
         <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1594,7 +1591,7 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1605,7 +1602,7 @@
         <v>195</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1616,7 +1613,7 @@
         <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1627,7 +1624,7 @@
         <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1638,7 +1635,7 @@
         <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1649,7 +1646,7 @@
         <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1660,7 +1657,7 @@
         <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1671,7 +1668,7 @@
         <v>188</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1682,7 +1679,7 @@
         <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1693,7 +1690,7 @@
         <v>189</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1704,7 +1701,7 @@
         <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1715,7 +1712,7 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1726,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1734,7 +1731,7 @@
         <v>200</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1742,7 +1739,7 @@
         <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1750,7 +1747,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1758,7 +1755,7 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
@@ -1766,7 +1763,7 @@
         <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
@@ -1774,161 +1771,156 @@
         <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>215</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>174</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1938,8 +1930,8 @@
       <sortCondition ref="C1:C65"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C97">
-    <sortCondition ref="C2:C97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C96">
+    <sortCondition ref="C2:C96"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/datasets/palavras_chave_esg.xlsx
+++ b/datasets/palavras_chave_esg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaraivaleite/TCC/Codigo/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF7E706-7DC7-2C4F-95A3-6C9B17D30B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A1AF81-FEA4-6B48-9483-8D6BE8A5CE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{9696DD06-7E27-1044-95AF-4D7C4710192F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$C$1:$C$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$C$1:$C$65</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="244">
   <si>
     <t>E</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Energia renovável</t>
   </si>
   <si>
-    <t>Usina eólica</t>
-  </si>
-  <si>
     <t>Usina solar</t>
   </si>
   <si>
@@ -691,6 +688,78 @@
   </si>
   <si>
     <t>Ocultação</t>
+  </si>
+  <si>
+    <t>ANPD</t>
+  </si>
+  <si>
+    <t>Dividendos</t>
+  </si>
+  <si>
+    <t>Blitz</t>
+  </si>
+  <si>
+    <t>Inspeção</t>
+  </si>
+  <si>
+    <t>Extrajudicial</t>
+  </si>
+  <si>
+    <t>Calote</t>
+  </si>
+  <si>
+    <t>Agrotóxico</t>
+  </si>
+  <si>
+    <t>Tóxico</t>
+  </si>
+  <si>
+    <t>Veneno</t>
+  </si>
+  <si>
+    <t>Queimada</t>
+  </si>
+  <si>
+    <t>Insolvência</t>
+  </si>
+  <si>
+    <t>Moratória Soja</t>
+  </si>
+  <si>
+    <t>Abuso</t>
+  </si>
+  <si>
+    <t>Informação privilegiada</t>
+  </si>
+  <si>
+    <t>Garimpo</t>
+  </si>
+  <si>
+    <t>Verra</t>
+  </si>
+  <si>
+    <t>Eólica</t>
+  </si>
+  <si>
+    <t>Caos</t>
+  </si>
+  <si>
+    <t>Laranja</t>
+  </si>
+  <si>
+    <t>Réu</t>
+  </si>
+  <si>
+    <t>Ilícito</t>
+  </si>
+  <si>
+    <t>Tráfico</t>
+  </si>
+  <si>
+    <t>Drogas</t>
+  </si>
+  <si>
+    <t>Entorpecentes</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F21AF48-96F3-3D46-821B-9B27FF9A764E}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C80" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1082,856 +1151,951 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>42</v>
       </c>
-      <c r="B60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>200</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>181</v>
-      </c>
-      <c r="C62" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>203</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>142</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C64" xr:uid="{8F21AF48-96F3-3D46-821B-9B27FF9A764E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C65">
-      <sortCondition ref="C1:C65"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C109">
+      <sortCondition ref="C1:C109"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C96">
-    <sortCondition ref="C2:C96"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B109">
+    <sortCondition ref="B2:B109"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/datasets/palavras_chave_esg.xlsx
+++ b/datasets/palavras_chave_esg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsaraivaleite/TCC/Codigo/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A1AF81-FEA4-6B48-9483-8D6BE8A5CE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635D9458-FDB2-C947-8363-B71598D87BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{9696DD06-7E27-1044-95AF-4D7C4710192F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$C$1:$C$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$C$1:$C$67</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="249">
   <si>
     <t>E</t>
   </si>
@@ -760,6 +760,21 @@
   </si>
   <si>
     <t>Entorpecentes</t>
+  </si>
+  <si>
+    <t>Denúncia</t>
+  </si>
+  <si>
+    <t>Quilombola</t>
+  </si>
+  <si>
+    <t>Golpe</t>
+  </si>
+  <si>
+    <t>Ponzi</t>
+  </si>
+  <si>
+    <t>Pirâmide financeira</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F21AF48-96F3-3D46-821B-9B27FF9A764E}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1609,7 @@
         <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1605,7 +1620,7 @@
         <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1616,7 +1631,7 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1627,7 +1642,7 @@
         <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1638,7 +1653,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1649,7 +1664,7 @@
         <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1660,7 +1675,7 @@
         <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1671,7 +1686,7 @@
         <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1682,7 +1697,7 @@
         <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1693,7 +1708,7 @@
         <v>194</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1704,7 +1719,7 @@
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1715,7 +1730,7 @@
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1726,7 +1741,7 @@
         <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1737,7 +1752,7 @@
         <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1748,7 +1763,7 @@
         <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1759,7 +1774,7 @@
         <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1770,7 +1785,7 @@
         <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1781,7 +1796,7 @@
         <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1792,7 +1807,7 @@
         <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1800,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1811,10 +1826,10 @@
         <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1822,10 +1837,10 @@
         <v>227</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1833,10 +1848,10 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C64" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1844,10 +1859,10 @@
         <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1855,10 +1870,10 @@
         <v>228</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1866,232 +1881,255 @@
         <v>235</v>
       </c>
       <c r="B67" t="s">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="C68" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>103</v>
       </c>
-      <c r="C69" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>238</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>219</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>72</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C64" xr:uid="{8F21AF48-96F3-3D46-821B-9B27FF9A764E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C109">
-      <sortCondition ref="C1:C109"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C113">
+      <sortCondition ref="C1:C113"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B109">
